--- a/result/problem_1/erf/result_4.xlsx
+++ b/result/problem_1/erf/result_4.xlsx
@@ -473,16 +473,16 @@
         <v>11369676</v>
       </c>
       <c r="C2" t="n">
-        <v>21855</v>
+        <v>22155</v>
       </c>
       <c r="D2" t="n">
-        <v>22146</v>
+        <v>22446</v>
       </c>
       <c r="E2" t="n">
         <v>15750</v>
       </c>
       <c r="F2" t="n">
-        <v>6396</v>
+        <v>6696</v>
       </c>
       <c r="G2" t="n">
         <v>291</v>
@@ -499,13 +499,13 @@
         <v>21555</v>
       </c>
       <c r="D3" t="n">
-        <v>23322</v>
+        <v>21855</v>
       </c>
       <c r="E3" t="n">
         <v>15750</v>
       </c>
       <c r="F3" t="n">
-        <v>7572</v>
+        <v>6105</v>
       </c>
       <c r="G3" t="n">
         <v>300</v>
@@ -519,16 +519,16 @@
         <v>11370645</v>
       </c>
       <c r="C4" t="n">
-        <v>5743</v>
+        <v>6148</v>
       </c>
       <c r="D4" t="n">
-        <v>5858</v>
+        <v>6263</v>
       </c>
       <c r="E4" t="n">
         <v>4500</v>
       </c>
       <c r="F4" t="n">
-        <v>1358</v>
+        <v>1763</v>
       </c>
       <c r="G4" t="n">
         <v>115</v>
@@ -542,16 +542,16 @@
         <v>11370654</v>
       </c>
       <c r="C5" t="n">
-        <v>4142</v>
+        <v>4863</v>
       </c>
       <c r="D5" t="n">
-        <v>5491</v>
+        <v>5115</v>
       </c>
       <c r="E5" t="n">
         <v>4500</v>
       </c>
       <c r="F5" t="n">
-        <v>991</v>
+        <v>615</v>
       </c>
       <c r="G5" t="n">
         <v>252</v>
@@ -565,10 +565,10 @@
         <v>11371431</v>
       </c>
       <c r="C6" t="n">
-        <v>889</v>
+        <v>964</v>
       </c>
       <c r="D6" t="n">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="E6" t="n">
         <v>2250</v>
@@ -634,16 +634,16 @@
         <v>11372286</v>
       </c>
       <c r="C9" t="n">
-        <v>14793</v>
+        <v>15311</v>
       </c>
       <c r="D9" t="n">
-        <v>18328</v>
+        <v>15619</v>
       </c>
       <c r="E9" t="n">
         <v>13500</v>
       </c>
       <c r="F9" t="n">
-        <v>4828</v>
+        <v>2119</v>
       </c>
       <c r="G9" t="n">
         <v>308</v>
@@ -657,16 +657,16 @@
         <v>11372287</v>
       </c>
       <c r="C10" t="n">
-        <v>14947</v>
+        <v>15619</v>
       </c>
       <c r="D10" t="n">
-        <v>18482</v>
+        <v>15927</v>
       </c>
       <c r="E10" t="n">
         <v>13500</v>
       </c>
       <c r="F10" t="n">
-        <v>4982</v>
+        <v>2427</v>
       </c>
       <c r="G10" t="n">
         <v>308</v>
@@ -680,16 +680,16 @@
         <v>11372288</v>
       </c>
       <c r="C11" t="n">
-        <v>15101</v>
+        <v>15927</v>
       </c>
       <c r="D11" t="n">
-        <v>18636</v>
+        <v>16235</v>
       </c>
       <c r="E11" t="n">
         <v>13500</v>
       </c>
       <c r="F11" t="n">
-        <v>5136</v>
+        <v>2735</v>
       </c>
       <c r="G11" t="n">
         <v>308</v>
@@ -703,16 +703,16 @@
         <v>11372290</v>
       </c>
       <c r="C12" t="n">
-        <v>15255</v>
+        <v>16235</v>
       </c>
       <c r="D12" t="n">
-        <v>18790</v>
+        <v>16543</v>
       </c>
       <c r="E12" t="n">
         <v>13500</v>
       </c>
       <c r="F12" t="n">
-        <v>5290</v>
+        <v>3043</v>
       </c>
       <c r="G12" t="n">
         <v>308</v>
@@ -726,16 +726,16 @@
         <v>11372291</v>
       </c>
       <c r="C13" t="n">
-        <v>15409</v>
+        <v>16543</v>
       </c>
       <c r="D13" t="n">
-        <v>18944</v>
+        <v>16851</v>
       </c>
       <c r="E13" t="n">
         <v>13500</v>
       </c>
       <c r="F13" t="n">
-        <v>5444</v>
+        <v>3351</v>
       </c>
       <c r="G13" t="n">
         <v>308</v>
@@ -752,13 +752,13 @@
         <v>14534</v>
       </c>
       <c r="D14" t="n">
-        <v>20164</v>
+        <v>14960</v>
       </c>
       <c r="E14" t="n">
         <v>13500</v>
       </c>
       <c r="F14" t="n">
-        <v>6664</v>
+        <v>1460</v>
       </c>
       <c r="G14" t="n">
         <v>426</v>
@@ -772,16 +772,16 @@
         <v>11372293</v>
       </c>
       <c r="C15" t="n">
-        <v>15563</v>
+        <v>16851</v>
       </c>
       <c r="D15" t="n">
-        <v>19098</v>
+        <v>17159</v>
       </c>
       <c r="E15" t="n">
         <v>13500</v>
       </c>
       <c r="F15" t="n">
-        <v>5598</v>
+        <v>3659</v>
       </c>
       <c r="G15" t="n">
         <v>308</v>
@@ -795,16 +795,16 @@
         <v>11372294</v>
       </c>
       <c r="C16" t="n">
-        <v>15717</v>
+        <v>17159</v>
       </c>
       <c r="D16" t="n">
-        <v>19252</v>
+        <v>17467</v>
       </c>
       <c r="E16" t="n">
         <v>13500</v>
       </c>
       <c r="F16" t="n">
-        <v>5752</v>
+        <v>3967</v>
       </c>
       <c r="G16" t="n">
         <v>308</v>
@@ -818,16 +818,16 @@
         <v>11372295</v>
       </c>
       <c r="C17" t="n">
-        <v>15871</v>
+        <v>17467</v>
       </c>
       <c r="D17" t="n">
-        <v>19406</v>
+        <v>17775</v>
       </c>
       <c r="E17" t="n">
         <v>13500</v>
       </c>
       <c r="F17" t="n">
-        <v>5906</v>
+        <v>4275</v>
       </c>
       <c r="G17" t="n">
         <v>308</v>
@@ -841,10 +841,10 @@
         <v>11372302</v>
       </c>
       <c r="C18" t="n">
-        <v>2129</v>
+        <v>2589</v>
       </c>
       <c r="D18" t="n">
-        <v>3112</v>
+        <v>2829</v>
       </c>
       <c r="E18" t="n">
         <v>3150</v>
@@ -864,16 +864,16 @@
         <v>11372310</v>
       </c>
       <c r="C19" t="n">
-        <v>2362</v>
+        <v>3055</v>
       </c>
       <c r="D19" t="n">
-        <v>2532</v>
+        <v>3225</v>
       </c>
       <c r="E19" t="n">
         <v>3150</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G19" t="n">
         <v>170</v>
@@ -910,16 +910,16 @@
         <v>11372993</v>
       </c>
       <c r="C21" t="n">
-        <v>3627</v>
+        <v>4277</v>
       </c>
       <c r="D21" t="n">
-        <v>6188</v>
+        <v>4583</v>
       </c>
       <c r="E21" t="n">
         <v>4500</v>
       </c>
       <c r="F21" t="n">
-        <v>1688</v>
+        <v>83</v>
       </c>
       <c r="G21" t="n">
         <v>306</v>
@@ -933,16 +933,16 @@
         <v>11372996</v>
       </c>
       <c r="C22" t="n">
-        <v>3473</v>
+        <v>3969</v>
       </c>
       <c r="D22" t="n">
-        <v>5004</v>
+        <v>4277</v>
       </c>
       <c r="E22" t="n">
         <v>4500</v>
       </c>
       <c r="F22" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>308</v>
@@ -956,16 +956,16 @@
         <v>11374291</v>
       </c>
       <c r="C23" t="n">
-        <v>16911</v>
+        <v>19263</v>
       </c>
       <c r="D23" t="n">
-        <v>20418</v>
+        <v>19515</v>
       </c>
       <c r="E23" t="n">
         <v>13500</v>
       </c>
       <c r="F23" t="n">
-        <v>6918</v>
+        <v>6015</v>
       </c>
       <c r="G23" t="n">
         <v>252</v>
@@ -1002,16 +1002,16 @@
         <v>11375210</v>
       </c>
       <c r="C25" t="n">
-        <v>24390</v>
+        <v>24674</v>
       </c>
       <c r="D25" t="n">
-        <v>28764</v>
+        <v>24982</v>
       </c>
       <c r="E25" t="n">
         <v>18000</v>
       </c>
       <c r="F25" t="n">
-        <v>10764</v>
+        <v>6982</v>
       </c>
       <c r="G25" t="n">
         <v>308</v>
@@ -1048,16 +1048,16 @@
         <v>11375217</v>
       </c>
       <c r="C27" t="n">
-        <v>27008</v>
+        <v>29910</v>
       </c>
       <c r="D27" t="n">
-        <v>31378</v>
+        <v>30210</v>
       </c>
       <c r="E27" t="n">
         <v>18000</v>
       </c>
       <c r="F27" t="n">
-        <v>13378</v>
+        <v>12210</v>
       </c>
       <c r="G27" t="n">
         <v>300</v>
@@ -1071,16 +1071,16 @@
         <v>11375218</v>
       </c>
       <c r="C28" t="n">
-        <v>27556</v>
+        <v>30722</v>
       </c>
       <c r="D28" t="n">
-        <v>32004</v>
+        <v>30948</v>
       </c>
       <c r="E28" t="n">
         <v>18000</v>
       </c>
       <c r="F28" t="n">
-        <v>14004</v>
+        <v>12948</v>
       </c>
       <c r="G28" t="n">
         <v>226</v>
@@ -1094,16 +1094,16 @@
         <v>11375220</v>
       </c>
       <c r="C29" t="n">
-        <v>27669</v>
+        <v>30948</v>
       </c>
       <c r="D29" t="n">
-        <v>32117</v>
+        <v>31174</v>
       </c>
       <c r="E29" t="n">
         <v>18000</v>
       </c>
       <c r="F29" t="n">
-        <v>14117</v>
+        <v>13174</v>
       </c>
       <c r="G29" t="n">
         <v>226</v>
@@ -1117,16 +1117,16 @@
         <v>11378891</v>
       </c>
       <c r="C30" t="n">
-        <v>3729</v>
+        <v>4583</v>
       </c>
       <c r="D30" t="n">
-        <v>4009</v>
+        <v>4863</v>
       </c>
       <c r="E30" t="n">
         <v>4500</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="G30" t="n">
         <v>280</v>
@@ -1140,10 +1140,10 @@
         <v>11414927</v>
       </c>
       <c r="C31" t="n">
-        <v>1169</v>
+        <v>1244</v>
       </c>
       <c r="D31" t="n">
-        <v>1259</v>
+        <v>1334</v>
       </c>
       <c r="E31" t="n">
         <v>2250</v>
@@ -1166,7 +1166,7 @@
         <v>814</v>
       </c>
       <c r="D32" t="n">
-        <v>1334</v>
+        <v>964</v>
       </c>
       <c r="E32" t="n">
         <v>2250</v>
@@ -1186,10 +1186,10 @@
         <v>11414937</v>
       </c>
       <c r="C33" t="n">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="D33" t="n">
-        <v>1169</v>
+        <v>1244</v>
       </c>
       <c r="E33" t="n">
         <v>2250</v>
@@ -1209,16 +1209,16 @@
         <v>11415099</v>
       </c>
       <c r="C34" t="n">
-        <v>28214</v>
+        <v>32038</v>
       </c>
       <c r="D34" t="n">
-        <v>32648</v>
+        <v>32236</v>
       </c>
       <c r="E34" t="n">
         <v>18000</v>
       </c>
       <c r="F34" t="n">
-        <v>14648</v>
+        <v>14236</v>
       </c>
       <c r="G34" t="n">
         <v>198</v>
@@ -1232,16 +1232,16 @@
         <v>11415105</v>
       </c>
       <c r="C35" t="n">
-        <v>28313</v>
+        <v>32236</v>
       </c>
       <c r="D35" t="n">
-        <v>32747</v>
+        <v>32434</v>
       </c>
       <c r="E35" t="n">
         <v>18000</v>
       </c>
       <c r="F35" t="n">
-        <v>14747</v>
+        <v>14434</v>
       </c>
       <c r="G35" t="n">
         <v>198</v>
@@ -1255,16 +1255,16 @@
         <v>11415107</v>
       </c>
       <c r="C36" t="n">
-        <v>28412</v>
+        <v>32434</v>
       </c>
       <c r="D36" t="n">
-        <v>32846</v>
+        <v>32632</v>
       </c>
       <c r="E36" t="n">
         <v>18000</v>
       </c>
       <c r="F36" t="n">
-        <v>14846</v>
+        <v>14632</v>
       </c>
       <c r="G36" t="n">
         <v>198</v>
@@ -1278,16 +1278,16 @@
         <v>11415108</v>
       </c>
       <c r="C37" t="n">
-        <v>28511</v>
+        <v>32632</v>
       </c>
       <c r="D37" t="n">
-        <v>32945</v>
+        <v>32830</v>
       </c>
       <c r="E37" t="n">
         <v>18000</v>
       </c>
       <c r="F37" t="n">
-        <v>14945</v>
+        <v>14830</v>
       </c>
       <c r="G37" t="n">
         <v>198</v>
@@ -1301,16 +1301,16 @@
         <v>11415109</v>
       </c>
       <c r="C38" t="n">
-        <v>28006</v>
+        <v>31622</v>
       </c>
       <c r="D38" t="n">
-        <v>32445</v>
+        <v>31830</v>
       </c>
       <c r="E38" t="n">
         <v>18000</v>
       </c>
       <c r="F38" t="n">
-        <v>14445</v>
+        <v>13830</v>
       </c>
       <c r="G38" t="n">
         <v>208</v>
@@ -1324,16 +1324,16 @@
         <v>11415110</v>
       </c>
       <c r="C39" t="n">
-        <v>28110</v>
+        <v>31830</v>
       </c>
       <c r="D39" t="n">
-        <v>32549</v>
+        <v>32038</v>
       </c>
       <c r="E39" t="n">
         <v>18000</v>
       </c>
       <c r="F39" t="n">
-        <v>14549</v>
+        <v>14038</v>
       </c>
       <c r="G39" t="n">
         <v>208</v>
@@ -1347,16 +1347,16 @@
         <v>11415417</v>
       </c>
       <c r="C40" t="n">
-        <v>5157</v>
+        <v>5998</v>
       </c>
       <c r="D40" t="n">
-        <v>6263</v>
+        <v>6148</v>
       </c>
       <c r="E40" t="n">
         <v>4500</v>
       </c>
       <c r="F40" t="n">
-        <v>1763</v>
+        <v>1648</v>
       </c>
       <c r="G40" t="n">
         <v>150</v>
@@ -1370,16 +1370,16 @@
         <v>11415423</v>
       </c>
       <c r="C41" t="n">
-        <v>4635</v>
+        <v>5619</v>
       </c>
       <c r="D41" t="n">
-        <v>6086</v>
+        <v>5845</v>
       </c>
       <c r="E41" t="n">
         <v>4500</v>
       </c>
       <c r="F41" t="n">
-        <v>1586</v>
+        <v>1345</v>
       </c>
       <c r="G41" t="n">
         <v>226</v>
@@ -1396,13 +1396,13 @@
         <v>3225</v>
       </c>
       <c r="D42" t="n">
-        <v>5365</v>
+        <v>3624</v>
       </c>
       <c r="E42" t="n">
         <v>4500</v>
       </c>
       <c r="F42" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>399</v>
@@ -1416,16 +1416,16 @@
         <v>11415452</v>
       </c>
       <c r="C43" t="n">
-        <v>4268</v>
+        <v>5115</v>
       </c>
       <c r="D43" t="n">
-        <v>5617</v>
+        <v>5367</v>
       </c>
       <c r="E43" t="n">
         <v>4500</v>
       </c>
       <c r="F43" t="n">
-        <v>1117</v>
+        <v>867</v>
       </c>
       <c r="G43" t="n">
         <v>252</v>
@@ -1439,16 +1439,16 @@
         <v>11415460</v>
       </c>
       <c r="C44" t="n">
-        <v>3358</v>
+        <v>3624</v>
       </c>
       <c r="D44" t="n">
-        <v>5973</v>
+        <v>3969</v>
       </c>
       <c r="E44" t="n">
         <v>4500</v>
       </c>
       <c r="F44" t="n">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>345</v>
@@ -1462,16 +1462,16 @@
         <v>11415461</v>
       </c>
       <c r="C45" t="n">
-        <v>4394</v>
+        <v>5367</v>
       </c>
       <c r="D45" t="n">
-        <v>5743</v>
+        <v>5619</v>
       </c>
       <c r="E45" t="n">
         <v>4500</v>
       </c>
       <c r="F45" t="n">
-        <v>1243</v>
+        <v>1119</v>
       </c>
       <c r="G45" t="n">
         <v>252</v>
@@ -1488,13 +1488,13 @@
         <v>24248</v>
       </c>
       <c r="D46" t="n">
-        <v>31520</v>
+        <v>24674</v>
       </c>
       <c r="E46" t="n">
         <v>18000</v>
       </c>
       <c r="F46" t="n">
-        <v>13520</v>
+        <v>6674</v>
       </c>
       <c r="G46" t="n">
         <v>426</v>
@@ -1508,16 +1508,16 @@
         <v>11415533</v>
       </c>
       <c r="C47" t="n">
-        <v>31776</v>
+        <v>32830</v>
       </c>
       <c r="D47" t="n">
-        <v>31891</v>
+        <v>32945</v>
       </c>
       <c r="E47" t="n">
         <v>18000</v>
       </c>
       <c r="F47" t="n">
-        <v>13891</v>
+        <v>14945</v>
       </c>
       <c r="G47" t="n">
         <v>115</v>
@@ -1531,16 +1531,16 @@
         <v>11415534</v>
       </c>
       <c r="C48" t="n">
-        <v>24544</v>
+        <v>24982</v>
       </c>
       <c r="D48" t="n">
-        <v>28918</v>
+        <v>25290</v>
       </c>
       <c r="E48" t="n">
         <v>18000</v>
       </c>
       <c r="F48" t="n">
-        <v>10918</v>
+        <v>7290</v>
       </c>
       <c r="G48" t="n">
         <v>308</v>
@@ -1554,16 +1554,16 @@
         <v>11415541</v>
       </c>
       <c r="C49" t="n">
-        <v>24698</v>
+        <v>25290</v>
       </c>
       <c r="D49" t="n">
-        <v>29072</v>
+        <v>25598</v>
       </c>
       <c r="E49" t="n">
         <v>18000</v>
       </c>
       <c r="F49" t="n">
-        <v>11072</v>
+        <v>7598</v>
       </c>
       <c r="G49" t="n">
         <v>308</v>
@@ -1577,16 +1577,16 @@
         <v>11415543</v>
       </c>
       <c r="C50" t="n">
-        <v>24852</v>
+        <v>25598</v>
       </c>
       <c r="D50" t="n">
-        <v>29226</v>
+        <v>25906</v>
       </c>
       <c r="E50" t="n">
         <v>18000</v>
       </c>
       <c r="F50" t="n">
-        <v>11226</v>
+        <v>7906</v>
       </c>
       <c r="G50" t="n">
         <v>308</v>
@@ -1600,16 +1600,16 @@
         <v>11419187</v>
       </c>
       <c r="C51" t="n">
-        <v>2249</v>
+        <v>2829</v>
       </c>
       <c r="D51" t="n">
-        <v>3225</v>
+        <v>3055</v>
       </c>
       <c r="E51" t="n">
         <v>3150</v>
       </c>
       <c r="F51" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>226</v>
@@ -1626,7 +1626,7 @@
         <v>6743</v>
       </c>
       <c r="D52" t="n">
-        <v>8308</v>
+        <v>7051</v>
       </c>
       <c r="E52" t="n">
         <v>9000</v>
@@ -1646,10 +1646,10 @@
         <v>11425918</v>
       </c>
       <c r="C53" t="n">
-        <v>6897</v>
+        <v>7051</v>
       </c>
       <c r="D53" t="n">
-        <v>8462</v>
+        <v>7359</v>
       </c>
       <c r="E53" t="n">
         <v>9000</v>
@@ -1669,10 +1669,10 @@
         <v>11425927</v>
       </c>
       <c r="C54" t="n">
-        <v>7051</v>
+        <v>7359</v>
       </c>
       <c r="D54" t="n">
-        <v>8616</v>
+        <v>7667</v>
       </c>
       <c r="E54" t="n">
         <v>9000</v>
@@ -1692,10 +1692,10 @@
         <v>11425932</v>
       </c>
       <c r="C55" t="n">
-        <v>7205</v>
+        <v>7667</v>
       </c>
       <c r="D55" t="n">
-        <v>8770</v>
+        <v>7975</v>
       </c>
       <c r="E55" t="n">
         <v>9000</v>
@@ -1715,16 +1715,16 @@
         <v>11425984</v>
       </c>
       <c r="C56" t="n">
-        <v>22544</v>
+        <v>23242</v>
       </c>
       <c r="D56" t="n">
-        <v>23996</v>
+        <v>23494</v>
       </c>
       <c r="E56" t="n">
         <v>15750</v>
       </c>
       <c r="F56" t="n">
-        <v>8246</v>
+        <v>7744</v>
       </c>
       <c r="G56" t="n">
         <v>252</v>
@@ -1738,16 +1738,16 @@
         <v>11425985</v>
       </c>
       <c r="C57" t="n">
-        <v>22670</v>
+        <v>23494</v>
       </c>
       <c r="D57" t="n">
-        <v>24122</v>
+        <v>23746</v>
       </c>
       <c r="E57" t="n">
         <v>15750</v>
       </c>
       <c r="F57" t="n">
-        <v>8372</v>
+        <v>7996</v>
       </c>
       <c r="G57" t="n">
         <v>252</v>
@@ -1761,16 +1761,16 @@
         <v>11425986</v>
       </c>
       <c r="C58" t="n">
-        <v>22796</v>
+        <v>23746</v>
       </c>
       <c r="D58" t="n">
-        <v>24248</v>
+        <v>23998</v>
       </c>
       <c r="E58" t="n">
         <v>15750</v>
       </c>
       <c r="F58" t="n">
-        <v>8498</v>
+        <v>8248</v>
       </c>
       <c r="G58" t="n">
         <v>252</v>
@@ -1784,16 +1784,16 @@
         <v>11426725</v>
       </c>
       <c r="C59" t="n">
-        <v>9873</v>
+        <v>10181</v>
       </c>
       <c r="D59" t="n">
-        <v>12479</v>
+        <v>10433</v>
       </c>
       <c r="E59" t="n">
         <v>11250</v>
       </c>
       <c r="F59" t="n">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>252</v>
@@ -1807,16 +1807,16 @@
         <v>11429443</v>
       </c>
       <c r="C60" t="n">
-        <v>14676</v>
+        <v>14960</v>
       </c>
       <c r="D60" t="n">
-        <v>21149</v>
+        <v>15311</v>
       </c>
       <c r="E60" t="n">
         <v>13500</v>
       </c>
       <c r="F60" t="n">
-        <v>7649</v>
+        <v>1811</v>
       </c>
       <c r="G60" t="n">
         <v>351</v>
@@ -1853,16 +1853,16 @@
         <v>11429452</v>
       </c>
       <c r="C62" t="n">
-        <v>22922</v>
+        <v>23998</v>
       </c>
       <c r="D62" t="n">
-        <v>23172</v>
+        <v>24248</v>
       </c>
       <c r="E62" t="n">
         <v>15750</v>
       </c>
       <c r="F62" t="n">
-        <v>7422</v>
+        <v>8498</v>
       </c>
       <c r="G62" t="n">
         <v>250</v>
@@ -1876,16 +1876,16 @@
         <v>11429554</v>
       </c>
       <c r="C63" t="n">
-        <v>17037</v>
+        <v>19515</v>
       </c>
       <c r="D63" t="n">
-        <v>20544</v>
+        <v>19767</v>
       </c>
       <c r="E63" t="n">
         <v>13500</v>
       </c>
       <c r="F63" t="n">
-        <v>7044</v>
+        <v>6267</v>
       </c>
       <c r="G63" t="n">
         <v>252</v>
@@ -1899,16 +1899,16 @@
         <v>11429557</v>
       </c>
       <c r="C64" t="n">
-        <v>17163</v>
+        <v>19767</v>
       </c>
       <c r="D64" t="n">
-        <v>20670</v>
+        <v>20019</v>
       </c>
       <c r="E64" t="n">
         <v>13500</v>
       </c>
       <c r="F64" t="n">
-        <v>7170</v>
+        <v>6519</v>
       </c>
       <c r="G64" t="n">
         <v>252</v>
@@ -1922,16 +1922,16 @@
         <v>11429713</v>
       </c>
       <c r="C65" t="n">
-        <v>17768</v>
+        <v>20743</v>
       </c>
       <c r="D65" t="n">
-        <v>21262</v>
+        <v>20969</v>
       </c>
       <c r="E65" t="n">
         <v>13500</v>
       </c>
       <c r="F65" t="n">
-        <v>7762</v>
+        <v>7469</v>
       </c>
       <c r="G65" t="n">
         <v>226</v>
@@ -1945,16 +1945,16 @@
         <v>11429715</v>
       </c>
       <c r="C66" t="n">
-        <v>17881</v>
+        <v>20969</v>
       </c>
       <c r="D66" t="n">
-        <v>21375</v>
+        <v>21195</v>
       </c>
       <c r="E66" t="n">
         <v>13500</v>
       </c>
       <c r="F66" t="n">
-        <v>7875</v>
+        <v>7695</v>
       </c>
       <c r="G66" t="n">
         <v>226</v>
@@ -1968,16 +1968,16 @@
         <v>11430970</v>
       </c>
       <c r="C67" t="n">
-        <v>16025</v>
+        <v>17775</v>
       </c>
       <c r="D67" t="n">
-        <v>19560</v>
+        <v>18083</v>
       </c>
       <c r="E67" t="n">
         <v>13500</v>
       </c>
       <c r="F67" t="n">
-        <v>6060</v>
+        <v>4583</v>
       </c>
       <c r="G67" t="n">
         <v>308</v>
@@ -1991,16 +1991,16 @@
         <v>11431583</v>
       </c>
       <c r="C68" t="n">
-        <v>25006</v>
+        <v>25906</v>
       </c>
       <c r="D68" t="n">
-        <v>29380</v>
+        <v>26214</v>
       </c>
       <c r="E68" t="n">
         <v>18000</v>
       </c>
       <c r="F68" t="n">
-        <v>11380</v>
+        <v>8214</v>
       </c>
       <c r="G68" t="n">
         <v>308</v>
@@ -2014,16 +2014,16 @@
         <v>11431584</v>
       </c>
       <c r="C69" t="n">
-        <v>25160</v>
+        <v>26214</v>
       </c>
       <c r="D69" t="n">
-        <v>29534</v>
+        <v>26522</v>
       </c>
       <c r="E69" t="n">
         <v>18000</v>
       </c>
       <c r="F69" t="n">
-        <v>11534</v>
+        <v>8522</v>
       </c>
       <c r="G69" t="n">
         <v>308</v>
@@ -2037,16 +2037,16 @@
         <v>11431585</v>
       </c>
       <c r="C70" t="n">
-        <v>25314</v>
+        <v>26522</v>
       </c>
       <c r="D70" t="n">
-        <v>29688</v>
+        <v>26830</v>
       </c>
       <c r="E70" t="n">
         <v>18000</v>
       </c>
       <c r="F70" t="n">
-        <v>11688</v>
+        <v>8830</v>
       </c>
       <c r="G70" t="n">
         <v>308</v>
@@ -2060,16 +2060,16 @@
         <v>11431586</v>
       </c>
       <c r="C71" t="n">
-        <v>25468</v>
+        <v>26830</v>
       </c>
       <c r="D71" t="n">
-        <v>29842</v>
+        <v>27138</v>
       </c>
       <c r="E71" t="n">
         <v>18000</v>
       </c>
       <c r="F71" t="n">
-        <v>11842</v>
+        <v>9138</v>
       </c>
       <c r="G71" t="n">
         <v>308</v>
@@ -2083,16 +2083,16 @@
         <v>11431587</v>
       </c>
       <c r="C72" t="n">
-        <v>25622</v>
+        <v>27138</v>
       </c>
       <c r="D72" t="n">
-        <v>29996</v>
+        <v>27446</v>
       </c>
       <c r="E72" t="n">
         <v>18000</v>
       </c>
       <c r="F72" t="n">
-        <v>11996</v>
+        <v>9446</v>
       </c>
       <c r="G72" t="n">
         <v>308</v>
@@ -2106,16 +2106,16 @@
         <v>11433279</v>
       </c>
       <c r="C73" t="n">
-        <v>16179</v>
+        <v>18083</v>
       </c>
       <c r="D73" t="n">
-        <v>19714</v>
+        <v>18391</v>
       </c>
       <c r="E73" t="n">
         <v>13500</v>
       </c>
       <c r="F73" t="n">
-        <v>6214</v>
+        <v>4891</v>
       </c>
       <c r="G73" t="n">
         <v>308</v>
@@ -2129,16 +2129,16 @@
         <v>11433280</v>
       </c>
       <c r="C74" t="n">
-        <v>16333</v>
+        <v>18391</v>
       </c>
       <c r="D74" t="n">
-        <v>19868</v>
+        <v>18699</v>
       </c>
       <c r="E74" t="n">
         <v>13500</v>
       </c>
       <c r="F74" t="n">
-        <v>6368</v>
+        <v>5199</v>
       </c>
       <c r="G74" t="n">
         <v>308</v>
@@ -2152,16 +2152,16 @@
         <v>11433285</v>
       </c>
       <c r="C75" t="n">
-        <v>16487</v>
+        <v>18699</v>
       </c>
       <c r="D75" t="n">
-        <v>20022</v>
+        <v>19007</v>
       </c>
       <c r="E75" t="n">
         <v>13500</v>
       </c>
       <c r="F75" t="n">
-        <v>6522</v>
+        <v>5507</v>
       </c>
       <c r="G75" t="n">
         <v>308</v>
@@ -2178,7 +2178,7 @@
         <v>1669</v>
       </c>
       <c r="D76" t="n">
-        <v>2686</v>
+        <v>1977</v>
       </c>
       <c r="E76" t="n">
         <v>3150</v>
@@ -2198,10 +2198,10 @@
         <v>11434333</v>
       </c>
       <c r="C77" t="n">
-        <v>1823</v>
+        <v>1977</v>
       </c>
       <c r="D77" t="n">
-        <v>2840</v>
+        <v>2285</v>
       </c>
       <c r="E77" t="n">
         <v>3150</v>
@@ -2221,16 +2221,16 @@
         <v>11435689</v>
       </c>
       <c r="C78" t="n">
-        <v>16783</v>
+        <v>19007</v>
       </c>
       <c r="D78" t="n">
-        <v>20292</v>
+        <v>19263</v>
       </c>
       <c r="E78" t="n">
         <v>13500</v>
       </c>
       <c r="F78" t="n">
-        <v>6792</v>
+        <v>5763</v>
       </c>
       <c r="G78" t="n">
         <v>256</v>
@@ -2267,7 +2267,7 @@
         <v>11461327</v>
       </c>
       <c r="C80" t="n">
-        <v>8050</v>
+        <v>9357</v>
       </c>
       <c r="D80" t="n">
         <v>9565</v>
@@ -2290,16 +2290,16 @@
         <v>11467145</v>
       </c>
       <c r="C81" t="n">
-        <v>22288</v>
+        <v>22730</v>
       </c>
       <c r="D81" t="n">
-        <v>23742</v>
+        <v>22986</v>
       </c>
       <c r="E81" t="n">
         <v>15750</v>
       </c>
       <c r="F81" t="n">
-        <v>7992</v>
+        <v>7236</v>
       </c>
       <c r="G81" t="n">
         <v>256</v>
@@ -2313,16 +2313,16 @@
         <v>11467148</v>
       </c>
       <c r="C82" t="n">
-        <v>22416</v>
+        <v>22986</v>
       </c>
       <c r="D82" t="n">
-        <v>23870</v>
+        <v>23242</v>
       </c>
       <c r="E82" t="n">
         <v>15750</v>
       </c>
       <c r="F82" t="n">
-        <v>8120</v>
+        <v>7492</v>
       </c>
       <c r="G82" t="n">
         <v>256</v>
@@ -2336,16 +2336,16 @@
         <v>11467243</v>
       </c>
       <c r="C83" t="n">
-        <v>22146</v>
+        <v>22446</v>
       </c>
       <c r="D83" t="n">
-        <v>23614</v>
+        <v>22730</v>
       </c>
       <c r="E83" t="n">
         <v>15750</v>
       </c>
       <c r="F83" t="n">
-        <v>7864</v>
+        <v>6980</v>
       </c>
       <c r="G83" t="n">
         <v>284</v>
@@ -2359,16 +2359,16 @@
         <v>11467247</v>
       </c>
       <c r="C84" t="n">
-        <v>21705</v>
+        <v>21855</v>
       </c>
       <c r="D84" t="n">
-        <v>23472</v>
+        <v>22155</v>
       </c>
       <c r="E84" t="n">
         <v>15750</v>
       </c>
       <c r="F84" t="n">
-        <v>7722</v>
+        <v>6405</v>
       </c>
       <c r="G84" t="n">
         <v>300</v>
@@ -2382,10 +2382,10 @@
         <v>11476279</v>
       </c>
       <c r="C85" t="n">
-        <v>1977</v>
+        <v>2285</v>
       </c>
       <c r="D85" t="n">
-        <v>2992</v>
+        <v>2589</v>
       </c>
       <c r="E85" t="n">
         <v>3150</v>
@@ -2405,16 +2405,16 @@
         <v>11481462</v>
       </c>
       <c r="C86" t="n">
-        <v>10881</v>
+        <v>12197</v>
       </c>
       <c r="D86" t="n">
-        <v>14534</v>
+        <v>12440</v>
       </c>
       <c r="E86" t="n">
         <v>11250</v>
       </c>
       <c r="F86" t="n">
-        <v>3284</v>
+        <v>1190</v>
       </c>
       <c r="G86" t="n">
         <v>243</v>
@@ -2431,7 +2431,7 @@
         <v>6263</v>
       </c>
       <c r="D87" t="n">
-        <v>6645</v>
+        <v>6547</v>
       </c>
       <c r="E87" t="n">
         <v>6750</v>
@@ -2451,16 +2451,16 @@
         <v>11485049</v>
       </c>
       <c r="C88" t="n">
-        <v>27300</v>
+        <v>30210</v>
       </c>
       <c r="D88" t="n">
-        <v>31648</v>
+        <v>30466</v>
       </c>
       <c r="E88" t="n">
         <v>18000</v>
       </c>
       <c r="F88" t="n">
-        <v>13648</v>
+        <v>12466</v>
       </c>
       <c r="G88" t="n">
         <v>256</v>
@@ -2474,16 +2474,16 @@
         <v>11485050</v>
       </c>
       <c r="C89" t="n">
-        <v>27428</v>
+        <v>30466</v>
       </c>
       <c r="D89" t="n">
-        <v>31776</v>
+        <v>30722</v>
       </c>
       <c r="E89" t="n">
         <v>18000</v>
       </c>
       <c r="F89" t="n">
-        <v>13776</v>
+        <v>12722</v>
       </c>
       <c r="G89" t="n">
         <v>256</v>
@@ -2497,16 +2497,16 @@
         <v>11485110</v>
       </c>
       <c r="C90" t="n">
-        <v>17289</v>
+        <v>20019</v>
       </c>
       <c r="D90" t="n">
-        <v>20796</v>
+        <v>20271</v>
       </c>
       <c r="E90" t="n">
         <v>13500</v>
       </c>
       <c r="F90" t="n">
-        <v>7296</v>
+        <v>6771</v>
       </c>
       <c r="G90" t="n">
         <v>252</v>
@@ -2520,16 +2520,16 @@
         <v>11485111</v>
       </c>
       <c r="C91" t="n">
-        <v>17994</v>
+        <v>21195</v>
       </c>
       <c r="D91" t="n">
-        <v>18174</v>
+        <v>21375</v>
       </c>
       <c r="E91" t="n">
         <v>13500</v>
       </c>
       <c r="F91" t="n">
-        <v>4674</v>
+        <v>7875</v>
       </c>
       <c r="G91" t="n">
         <v>180</v>
@@ -2543,16 +2543,16 @@
         <v>11485113</v>
       </c>
       <c r="C92" t="n">
-        <v>17415</v>
+        <v>20271</v>
       </c>
       <c r="D92" t="n">
-        <v>20914</v>
+        <v>20507</v>
       </c>
       <c r="E92" t="n">
         <v>13500</v>
       </c>
       <c r="F92" t="n">
-        <v>7414</v>
+        <v>7007</v>
       </c>
       <c r="G92" t="n">
         <v>236</v>
@@ -2566,16 +2566,16 @@
         <v>11485118</v>
       </c>
       <c r="C93" t="n">
-        <v>17533</v>
+        <v>20507</v>
       </c>
       <c r="D93" t="n">
-        <v>21032</v>
+        <v>20743</v>
       </c>
       <c r="E93" t="n">
         <v>13500</v>
       </c>
       <c r="F93" t="n">
-        <v>7532</v>
+        <v>7243</v>
       </c>
       <c r="G93" t="n">
         <v>236</v>
@@ -2589,16 +2589,16 @@
         <v>11485143</v>
       </c>
       <c r="C94" t="n">
-        <v>25776</v>
+        <v>27446</v>
       </c>
       <c r="D94" t="n">
-        <v>30150</v>
+        <v>27754</v>
       </c>
       <c r="E94" t="n">
         <v>18000</v>
       </c>
       <c r="F94" t="n">
-        <v>12150</v>
+        <v>9754</v>
       </c>
       <c r="G94" t="n">
         <v>308</v>
@@ -2612,16 +2612,16 @@
         <v>11485144</v>
       </c>
       <c r="C95" t="n">
-        <v>25930</v>
+        <v>27754</v>
       </c>
       <c r="D95" t="n">
-        <v>30304</v>
+        <v>28062</v>
       </c>
       <c r="E95" t="n">
         <v>18000</v>
       </c>
       <c r="F95" t="n">
-        <v>12304</v>
+        <v>10062</v>
       </c>
       <c r="G95" t="n">
         <v>308</v>
@@ -2635,16 +2635,16 @@
         <v>11485145</v>
       </c>
       <c r="C96" t="n">
-        <v>26084</v>
+        <v>28062</v>
       </c>
       <c r="D96" t="n">
-        <v>30458</v>
+        <v>28370</v>
       </c>
       <c r="E96" t="n">
         <v>18000</v>
       </c>
       <c r="F96" t="n">
-        <v>12458</v>
+        <v>10370</v>
       </c>
       <c r="G96" t="n">
         <v>308</v>
@@ -2658,16 +2658,16 @@
         <v>11485146</v>
       </c>
       <c r="C97" t="n">
-        <v>26238</v>
+        <v>28370</v>
       </c>
       <c r="D97" t="n">
-        <v>30612</v>
+        <v>28678</v>
       </c>
       <c r="E97" t="n">
         <v>18000</v>
       </c>
       <c r="F97" t="n">
-        <v>12612</v>
+        <v>10678</v>
       </c>
       <c r="G97" t="n">
         <v>308</v>
@@ -2681,16 +2681,16 @@
         <v>11485149</v>
       </c>
       <c r="C98" t="n">
-        <v>26392</v>
+        <v>28678</v>
       </c>
       <c r="D98" t="n">
-        <v>30766</v>
+        <v>28986</v>
       </c>
       <c r="E98" t="n">
         <v>18000</v>
       </c>
       <c r="F98" t="n">
-        <v>12766</v>
+        <v>10986</v>
       </c>
       <c r="G98" t="n">
         <v>308</v>
@@ -2704,16 +2704,16 @@
         <v>11485150</v>
       </c>
       <c r="C99" t="n">
-        <v>26546</v>
+        <v>28986</v>
       </c>
       <c r="D99" t="n">
-        <v>30920</v>
+        <v>29294</v>
       </c>
       <c r="E99" t="n">
         <v>18000</v>
       </c>
       <c r="F99" t="n">
-        <v>12920</v>
+        <v>11294</v>
       </c>
       <c r="G99" t="n">
         <v>308</v>
@@ -2727,16 +2727,16 @@
         <v>11485154</v>
       </c>
       <c r="C100" t="n">
-        <v>26700</v>
+        <v>29294</v>
       </c>
       <c r="D100" t="n">
-        <v>31074</v>
+        <v>29602</v>
       </c>
       <c r="E100" t="n">
         <v>18000</v>
       </c>
       <c r="F100" t="n">
-        <v>13074</v>
+        <v>11602</v>
       </c>
       <c r="G100" t="n">
         <v>308</v>
@@ -2750,16 +2750,16 @@
         <v>11485155</v>
       </c>
       <c r="C101" t="n">
-        <v>26854</v>
+        <v>29602</v>
       </c>
       <c r="D101" t="n">
-        <v>31228</v>
+        <v>29910</v>
       </c>
       <c r="E101" t="n">
         <v>18000</v>
       </c>
       <c r="F101" t="n">
-        <v>13228</v>
+        <v>11910</v>
       </c>
       <c r="G101" t="n">
         <v>308</v>
@@ -2773,16 +2773,16 @@
         <v>11485158</v>
       </c>
       <c r="C102" t="n">
-        <v>7485</v>
+        <v>8227</v>
       </c>
       <c r="D102" t="n">
-        <v>9009</v>
+        <v>8453</v>
       </c>
       <c r="E102" t="n">
         <v>9000</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>226</v>
@@ -2796,16 +2796,16 @@
         <v>11485160</v>
       </c>
       <c r="C103" t="n">
-        <v>7598</v>
+        <v>8453</v>
       </c>
       <c r="D103" t="n">
-        <v>9122</v>
+        <v>8679</v>
       </c>
       <c r="E103" t="n">
         <v>9000</v>
       </c>
       <c r="F103" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>226</v>
@@ -2819,16 +2819,16 @@
         <v>11485161</v>
       </c>
       <c r="C104" t="n">
-        <v>7711</v>
+        <v>8679</v>
       </c>
       <c r="D104" t="n">
-        <v>9235</v>
+        <v>8905</v>
       </c>
       <c r="E104" t="n">
         <v>9000</v>
       </c>
       <c r="F104" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>226</v>
@@ -2842,16 +2842,16 @@
         <v>11485163</v>
       </c>
       <c r="C105" t="n">
-        <v>7824</v>
+        <v>8905</v>
       </c>
       <c r="D105" t="n">
-        <v>9348</v>
+        <v>9131</v>
       </c>
       <c r="E105" t="n">
         <v>9000</v>
       </c>
       <c r="F105" t="n">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="G105" t="n">
         <v>226</v>
@@ -2865,16 +2865,16 @@
         <v>11485164</v>
       </c>
       <c r="C106" t="n">
-        <v>7937</v>
+        <v>9131</v>
       </c>
       <c r="D106" t="n">
-        <v>9461</v>
+        <v>9357</v>
       </c>
       <c r="E106" t="n">
         <v>9000</v>
       </c>
       <c r="F106" t="n">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="G106" t="n">
         <v>226</v>
@@ -2888,16 +2888,16 @@
         <v>11485173</v>
       </c>
       <c r="C107" t="n">
-        <v>9999</v>
+        <v>10433</v>
       </c>
       <c r="D107" t="n">
-        <v>12605</v>
+        <v>10685</v>
       </c>
       <c r="E107" t="n">
         <v>11250</v>
       </c>
       <c r="F107" t="n">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>252</v>
@@ -2911,16 +2911,16 @@
         <v>11485175</v>
       </c>
       <c r="C108" t="n">
-        <v>14363</v>
+        <v>14444</v>
       </c>
       <c r="D108" t="n">
-        <v>14453</v>
+        <v>14534</v>
       </c>
       <c r="E108" t="n">
         <v>11250</v>
       </c>
       <c r="F108" t="n">
-        <v>3203</v>
+        <v>3284</v>
       </c>
       <c r="G108" t="n">
         <v>90</v>
@@ -2934,16 +2934,16 @@
         <v>11485177</v>
       </c>
       <c r="C109" t="n">
-        <v>10125</v>
+        <v>10685</v>
       </c>
       <c r="D109" t="n">
-        <v>12731</v>
+        <v>10937</v>
       </c>
       <c r="E109" t="n">
         <v>11250</v>
       </c>
       <c r="F109" t="n">
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>252</v>
@@ -2957,16 +2957,16 @@
         <v>11485179</v>
       </c>
       <c r="C110" t="n">
-        <v>10251</v>
+        <v>10937</v>
       </c>
       <c r="D110" t="n">
-        <v>12857</v>
+        <v>11189</v>
       </c>
       <c r="E110" t="n">
         <v>11250</v>
       </c>
       <c r="F110" t="n">
-        <v>1607</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>252</v>
@@ -2980,16 +2980,16 @@
         <v>11485180</v>
       </c>
       <c r="C111" t="n">
-        <v>10377</v>
+        <v>11189</v>
       </c>
       <c r="D111" t="n">
-        <v>12983</v>
+        <v>11441</v>
       </c>
       <c r="E111" t="n">
         <v>11250</v>
       </c>
       <c r="F111" t="n">
-        <v>1733</v>
+        <v>191</v>
       </c>
       <c r="G111" t="n">
         <v>252</v>
@@ -3003,16 +3003,16 @@
         <v>11485185</v>
       </c>
       <c r="C112" t="n">
-        <v>10503</v>
+        <v>11441</v>
       </c>
       <c r="D112" t="n">
-        <v>13109</v>
+        <v>11693</v>
       </c>
       <c r="E112" t="n">
         <v>11250</v>
       </c>
       <c r="F112" t="n">
-        <v>1859</v>
+        <v>443</v>
       </c>
       <c r="G112" t="n">
         <v>252</v>
@@ -3026,16 +3026,16 @@
         <v>11487293</v>
       </c>
       <c r="C113" t="n">
-        <v>5004</v>
+        <v>5845</v>
       </c>
       <c r="D113" t="n">
-        <v>5157</v>
+        <v>5998</v>
       </c>
       <c r="E113" t="n">
         <v>4500</v>
       </c>
       <c r="F113" t="n">
-        <v>657</v>
+        <v>1498</v>
       </c>
       <c r="G113" t="n">
         <v>153</v>
@@ -3049,16 +3049,16 @@
         <v>11490009</v>
       </c>
       <c r="C114" t="n">
-        <v>10629</v>
+        <v>11693</v>
       </c>
       <c r="D114" t="n">
-        <v>13235</v>
+        <v>11945</v>
       </c>
       <c r="E114" t="n">
         <v>11250</v>
       </c>
       <c r="F114" t="n">
-        <v>1985</v>
+        <v>695</v>
       </c>
       <c r="G114" t="n">
         <v>252</v>
@@ -3072,16 +3072,16 @@
         <v>11490010</v>
       </c>
       <c r="C115" t="n">
-        <v>10755</v>
+        <v>11945</v>
       </c>
       <c r="D115" t="n">
-        <v>13361</v>
+        <v>12197</v>
       </c>
       <c r="E115" t="n">
         <v>11250</v>
       </c>
       <c r="F115" t="n">
-        <v>2111</v>
+        <v>947</v>
       </c>
       <c r="G115" t="n">
         <v>252</v>
@@ -3095,10 +3095,10 @@
         <v>11490018</v>
       </c>
       <c r="C116" t="n">
-        <v>7359</v>
+        <v>7975</v>
       </c>
       <c r="D116" t="n">
-        <v>8896</v>
+        <v>8227</v>
       </c>
       <c r="E116" t="n">
         <v>9000</v>
@@ -3121,13 +3121,13 @@
         <v>9565</v>
       </c>
       <c r="D117" t="n">
-        <v>12199</v>
+        <v>9873</v>
       </c>
       <c r="E117" t="n">
         <v>11250</v>
       </c>
       <c r="F117" t="n">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>308</v>
@@ -3141,16 +3141,16 @@
         <v>11492818</v>
       </c>
       <c r="C118" t="n">
-        <v>9719</v>
+        <v>9873</v>
       </c>
       <c r="D118" t="n">
-        <v>12353</v>
+        <v>10181</v>
       </c>
       <c r="E118" t="n">
         <v>11250</v>
       </c>
       <c r="F118" t="n">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>308</v>
@@ -3164,16 +3164,16 @@
         <v>11492835</v>
       </c>
       <c r="C119" t="n">
-        <v>10962</v>
+        <v>12440</v>
       </c>
       <c r="D119" t="n">
-        <v>13474</v>
+        <v>12666</v>
       </c>
       <c r="E119" t="n">
         <v>11250</v>
       </c>
       <c r="F119" t="n">
-        <v>2224</v>
+        <v>1416</v>
       </c>
       <c r="G119" t="n">
         <v>226</v>
@@ -3187,16 +3187,16 @@
         <v>11492836</v>
       </c>
       <c r="C120" t="n">
-        <v>11075</v>
+        <v>12666</v>
       </c>
       <c r="D120" t="n">
-        <v>13587</v>
+        <v>12892</v>
       </c>
       <c r="E120" t="n">
         <v>11250</v>
       </c>
       <c r="F120" t="n">
-        <v>2337</v>
+        <v>1642</v>
       </c>
       <c r="G120" t="n">
         <v>226</v>
@@ -3210,16 +3210,16 @@
         <v>11492837</v>
       </c>
       <c r="C121" t="n">
-        <v>11188</v>
+        <v>12892</v>
       </c>
       <c r="D121" t="n">
-        <v>13700</v>
+        <v>13118</v>
       </c>
       <c r="E121" t="n">
         <v>11250</v>
       </c>
       <c r="F121" t="n">
-        <v>2450</v>
+        <v>1868</v>
       </c>
       <c r="G121" t="n">
         <v>226</v>
@@ -3233,16 +3233,16 @@
         <v>11492838</v>
       </c>
       <c r="C122" t="n">
-        <v>11301</v>
+        <v>13118</v>
       </c>
       <c r="D122" t="n">
-        <v>13813</v>
+        <v>13344</v>
       </c>
       <c r="E122" t="n">
         <v>11250</v>
       </c>
       <c r="F122" t="n">
-        <v>2563</v>
+        <v>2094</v>
       </c>
       <c r="G122" t="n">
         <v>226</v>
@@ -3256,16 +3256,16 @@
         <v>11492839</v>
       </c>
       <c r="C123" t="n">
-        <v>11414</v>
+        <v>13344</v>
       </c>
       <c r="D123" t="n">
-        <v>13926</v>
+        <v>13570</v>
       </c>
       <c r="E123" t="n">
         <v>11250</v>
       </c>
       <c r="F123" t="n">
-        <v>2676</v>
+        <v>2320</v>
       </c>
       <c r="G123" t="n">
         <v>226</v>
@@ -3279,16 +3279,16 @@
         <v>11492840</v>
       </c>
       <c r="C124" t="n">
-        <v>11866</v>
+        <v>14248</v>
       </c>
       <c r="D124" t="n">
-        <v>14363</v>
+        <v>14444</v>
       </c>
       <c r="E124" t="n">
         <v>11250</v>
       </c>
       <c r="F124" t="n">
-        <v>3113</v>
+        <v>3194</v>
       </c>
       <c r="G124" t="n">
         <v>196</v>
@@ -3302,7 +3302,7 @@
         <v>11492841</v>
       </c>
       <c r="C125" t="n">
-        <v>6405</v>
+        <v>6547</v>
       </c>
       <c r="D125" t="n">
         <v>6743</v>
@@ -3325,16 +3325,16 @@
         <v>11492842</v>
       </c>
       <c r="C126" t="n">
-        <v>11527</v>
+        <v>13570</v>
       </c>
       <c r="D126" t="n">
-        <v>14039</v>
+        <v>13796</v>
       </c>
       <c r="E126" t="n">
         <v>11250</v>
       </c>
       <c r="F126" t="n">
-        <v>2789</v>
+        <v>2546</v>
       </c>
       <c r="G126" t="n">
         <v>226</v>
@@ -3348,16 +3348,16 @@
         <v>11492843</v>
       </c>
       <c r="C127" t="n">
-        <v>11640</v>
+        <v>13796</v>
       </c>
       <c r="D127" t="n">
-        <v>14152</v>
+        <v>14022</v>
       </c>
       <c r="E127" t="n">
         <v>11250</v>
       </c>
       <c r="F127" t="n">
-        <v>2902</v>
+        <v>2772</v>
       </c>
       <c r="G127" t="n">
         <v>226</v>
@@ -3371,16 +3371,16 @@
         <v>11492844</v>
       </c>
       <c r="C128" t="n">
-        <v>11753</v>
+        <v>14022</v>
       </c>
       <c r="D128" t="n">
-        <v>14265</v>
+        <v>14248</v>
       </c>
       <c r="E128" t="n">
         <v>11250</v>
       </c>
       <c r="F128" t="n">
-        <v>3015</v>
+        <v>2998</v>
       </c>
       <c r="G128" t="n">
         <v>226</v>
@@ -3394,16 +3394,16 @@
         <v>11492856</v>
       </c>
       <c r="C129" t="n">
-        <v>27895</v>
+        <v>31400</v>
       </c>
       <c r="D129" t="n">
-        <v>32341</v>
+        <v>31622</v>
       </c>
       <c r="E129" t="n">
         <v>18000</v>
       </c>
       <c r="F129" t="n">
-        <v>14341</v>
+        <v>13622</v>
       </c>
       <c r="G129" t="n">
         <v>222</v>
@@ -3417,16 +3417,16 @@
         <v>11496870</v>
       </c>
       <c r="C130" t="n">
-        <v>27782</v>
+        <v>31174</v>
       </c>
       <c r="D130" t="n">
-        <v>32230</v>
+        <v>31400</v>
       </c>
       <c r="E130" t="n">
         <v>18000</v>
       </c>
       <c r="F130" t="n">
-        <v>14230</v>
+        <v>13400</v>
       </c>
       <c r="G130" t="n">
         <v>226</v>
